--- a/Experimentos/teste_geral/Dataset6/statistic_best_per_experiment_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset6/statistic_best_per_experiment_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{455EDDCB-9CFA-43E1-8B52-1397C104C0DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B377296D-E18D-41F2-8EDB-B2D31CF9BA0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_best_per_experiment_f" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>OX1</t>
   </si>
   <si>
@@ -84,11 +78,17 @@
   <si>
     <t>Mutation prob,:</t>
   </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Scramble</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,22 +638,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
-  <autoFilter ref="A2:J258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
+  <autoFilter ref="A2:J258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J258">
     <sortCondition ref="I2:I258"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Fitness:"/>
-    <tableColumn id="10" name="Tempo:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fitness:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tempo:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1004,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1059,10 +1059,10 @@
         <v>2000</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -1146,7 +1146,7 @@
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1178,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0.7</v>
@@ -1204,10 +1204,10 @@
         <v>2000</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0.8</v>
@@ -1233,7 +1233,7 @@
         <v>2000</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1265,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0.8</v>
@@ -1294,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -1320,7 +1320,7 @@
         <v>2000</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1349,10 +1349,10 @@
         <v>2000</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0.8</v>
@@ -1381,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0.7</v>
@@ -1407,7 +1407,7 @@
         <v>2000</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0.7</v>
@@ -1497,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0.7</v>
@@ -1523,10 +1523,10 @@
         <v>2000</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0.7</v>
@@ -1552,10 +1552,10 @@
         <v>2000</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0.8</v>
@@ -1581,10 +1581,10 @@
         <v>2000</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0.7</v>
@@ -1639,10 +1639,10 @@
         <v>2000</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0.7</v>
@@ -1668,10 +1668,10 @@
         <v>2000</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0.8</v>
@@ -1697,10 +1697,10 @@
         <v>2000</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0.7</v>
@@ -1755,10 +1755,10 @@
         <v>2000</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0.8</v>
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0.8</v>
@@ -1813,7 +1813,7 @@
         <v>2000</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -1842,10 +1842,10 @@
         <v>2000</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0.8</v>
@@ -1871,10 +1871,10 @@
         <v>2000</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>0.7</v>
@@ -1900,10 +1900,10 @@
         <v>2000</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0.8</v>
@@ -1929,7 +1929,7 @@
         <v>2000</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1958,10 +1958,10 @@
         <v>2000</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>0.7</v>
@@ -1987,10 +1987,10 @@
         <v>2000</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>0.8</v>
@@ -2016,10 +2016,10 @@
         <v>2000</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>0.7</v>
@@ -2074,10 +2074,10 @@
         <v>2000</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0.7</v>
@@ -2106,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>0.8</v>
@@ -2132,7 +2132,7 @@
         <v>2000</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -2190,7 +2190,7 @@
         <v>2000</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -2219,10 +2219,10 @@
         <v>2000</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>0.7</v>
@@ -2248,10 +2248,10 @@
         <v>2000</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>0.7</v>
@@ -2277,10 +2277,10 @@
         <v>2000</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <v>0.7</v>
@@ -2306,10 +2306,10 @@
         <v>2000</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E47">
         <v>0.8</v>
@@ -2335,10 +2335,10 @@
         <v>2000</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E48">
         <v>0.8</v>
@@ -2364,10 +2364,10 @@
         <v>2000</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49">
         <v>0.7</v>
@@ -2396,22 +2396,22 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>0.8</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G50">
         <v>0.2</v>
       </c>
       <c r="I50">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="J50">
-        <v>14866</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,22 +2425,22 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <v>0.8</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G51">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I51">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="J51">
-        <v>10671</v>
+        <v>10079</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2454,22 +2454,22 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G52">
         <v>0.2</v>
       </c>
       <c r="I52">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="J52">
-        <v>10447</v>
+        <v>8974</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,22 +2483,22 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E53">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="J53">
-        <v>12325</v>
+        <v>9781</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2512,22 +2512,22 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G54">
         <v>0.2</v>
       </c>
       <c r="I54">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="J54">
-        <v>10059</v>
+        <v>9548</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2541,22 +2541,22 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G55">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I55">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="J55">
-        <v>11428</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2570,27 +2570,27 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>0.7</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G56">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I56">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="J56">
-        <v>11761</v>
+        <v>9967</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>2000</v>
@@ -2605,21 +2605,21 @@
         <v>0.8</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G57">
         <v>0.2</v>
       </c>
       <c r="I57">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="J57">
-        <v>5492</v>
+        <v>10671</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B58">
         <v>2000</v>
@@ -2628,22 +2628,22 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G58">
         <v>0.2</v>
       </c>
       <c r="I58">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="J58">
-        <v>5297</v>
+        <v>9859</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2657,22 +2657,22 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G59">
         <v>0.2</v>
       </c>
       <c r="I59">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="J59">
-        <v>8664</v>
+        <v>9319</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2683,25 +2683,25 @@
         <v>2000</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>0.8</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <v>0.4</v>
       </c>
       <c r="I60">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="J60">
-        <v>9705</v>
+        <v>10104</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2712,30 +2712,30 @@
         <v>2000</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>0.7</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G61">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I61">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="J61">
-        <v>9650</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B62">
         <v>2000</v>
@@ -2744,22 +2744,22 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>0.8</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G62">
         <v>0.2</v>
       </c>
       <c r="I62">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="J62">
-        <v>5287</v>
+        <v>9324</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2773,22 +2773,22 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G63">
         <v>0.2</v>
       </c>
       <c r="I63">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="J63">
-        <v>5400</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2802,33 +2802,33 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
       <c r="G64">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I64">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="J64">
-        <v>9711</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B65">
         <v>2000</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2837,21 +2837,21 @@
         <v>0.7</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G65">
         <v>0.4</v>
       </c>
       <c r="I65">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="J65">
-        <v>5584</v>
+        <v>9490</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>2000</v>
@@ -2860,51 +2860,51 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <v>0.2</v>
       </c>
       <c r="I66">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="J66">
-        <v>13545</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>2000</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G67">
         <v>0.4</v>
       </c>
       <c r="I67">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="J67">
-        <v>8720</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2921,135 +2921,135 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <v>0.2</v>
       </c>
       <c r="I68">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="J68">
-        <v>5485</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B69">
         <v>2000</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
       <c r="E69">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G69">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I69">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="J69">
-        <v>5451</v>
+        <v>11828</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B70">
         <v>2000</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G70">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I70">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="J70">
-        <v>5533</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B71">
         <v>2000</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E71">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G71">
         <v>0.4</v>
       </c>
       <c r="I71">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="J71">
-        <v>10279</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B72">
         <v>2000</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>0.8</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G72">
         <v>0.4</v>
       </c>
       <c r="I72">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="J72">
-        <v>5677</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3060,54 +3060,54 @@
         <v>2000</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G73">
         <v>0.4</v>
       </c>
       <c r="I73">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="J73">
-        <v>9111</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B74">
         <v>2000</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
       <c r="E74">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G74">
         <v>0.4</v>
       </c>
       <c r="I74">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="J74">
-        <v>10863</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>2000</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -3133,10 +3133,10 @@
         <v>0.4</v>
       </c>
       <c r="I75">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="J75">
-        <v>9613</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,22 +3150,22 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>0.8</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G76">
         <v>0.2</v>
       </c>
       <c r="I76">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="J76">
-        <v>5157</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3179,22 +3179,22 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>0.7</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G77">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I77">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="J77">
-        <v>9797</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3205,30 +3205,30 @@
         <v>2000</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E78">
         <v>0.7</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G78">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I78">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="J78">
-        <v>4434</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B79">
         <v>2000</v>
@@ -3237,51 +3237,51 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E79">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G79">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I79">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="J79">
-        <v>9949</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>2000</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G80">
         <v>0.4</v>
       </c>
       <c r="I80">
-        <v>868</v>
+        <v>842</v>
       </c>
       <c r="J80">
-        <v>8819</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3292,25 +3292,25 @@
         <v>2000</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E81">
         <v>0.8</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G81">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I81">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="J81">
-        <v>4663</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3321,54 +3321,54 @@
         <v>2000</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E82">
         <v>0.8</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G82">
         <v>0.4</v>
       </c>
       <c r="I82">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="J82">
-        <v>4826</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B83">
         <v>2000</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G83">
         <v>0.4</v>
       </c>
       <c r="I83">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="J83">
-        <v>5248</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3379,30 +3379,30 @@
         <v>2000</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84">
         <v>0.7</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G84">
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="J84">
-        <v>5064</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B85">
         <v>2000</v>
@@ -3411,80 +3411,80 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E85">
         <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G85">
         <v>0.2</v>
       </c>
       <c r="I85">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="J85">
-        <v>9820</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B86">
         <v>2000</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E86">
         <v>0.8</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G86">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I86">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="J86">
-        <v>10034</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B87">
         <v>2000</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
       </c>
       <c r="G87">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I87">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="J87">
-        <v>5657</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,54 +3495,54 @@
         <v>2000</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E88">
         <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G88">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I88">
-        <v>882</v>
+        <v>854</v>
       </c>
       <c r="J88">
-        <v>9395</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B89">
         <v>2000</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I89">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="J89">
-        <v>9448</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3553,10 +3553,10 @@
         <v>2000</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E90">
         <v>0.7</v>
@@ -3565,56 +3565,56 @@
         <v>9</v>
       </c>
       <c r="G90">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I90">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="J90">
-        <v>8678</v>
+        <v>9797</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B91">
         <v>2000</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>0.7</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G91">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I91">
-        <v>886</v>
+        <v>858</v>
       </c>
       <c r="J91">
-        <v>5330</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B92">
         <v>2000</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92">
         <v>0.7</v>
@@ -3626,10 +3626,10 @@
         <v>0.4</v>
       </c>
       <c r="I92">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="J92">
-        <v>9782</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3640,25 +3640,25 @@
         <v>2000</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
       </c>
       <c r="E93">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G93">
         <v>0.4</v>
       </c>
       <c r="I93">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="J93">
-        <v>4849</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3669,25 +3669,25 @@
         <v>2000</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E94">
         <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G94">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I94">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="J94">
-        <v>5262</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3698,25 +3698,25 @@
         <v>2000</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
       </c>
       <c r="E95">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G95">
         <v>0.4</v>
       </c>
       <c r="I95">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="J95">
-        <v>5021</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3727,13 +3727,13 @@
         <v>2000</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F96" t="s">
         <v>9</v>
@@ -3742,39 +3742,39 @@
         <v>0.4</v>
       </c>
       <c r="I96">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="J96">
-        <v>9266</v>
+        <v>8819</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>2000</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97">
         <v>0.8</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G97">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I97">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="J97">
-        <v>9708</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3785,10 +3785,10 @@
         <v>2000</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>0.8</v>
@@ -3797,13 +3797,13 @@
         <v>9</v>
       </c>
       <c r="G98">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I98">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="J98">
-        <v>5156</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3817,22 +3817,22 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E99">
         <v>0.8</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G99">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I99">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="J99">
-        <v>5264</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3843,83 +3843,83 @@
         <v>2000</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <v>0.7</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G100">
         <v>0.2</v>
       </c>
       <c r="I100">
-        <v>898</v>
+        <v>870</v>
       </c>
       <c r="J100">
-        <v>7905</v>
+        <v>9046</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B101">
         <v>2000</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
       <c r="E101">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G101">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I101">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="J101">
-        <v>5309</v>
+        <v>10256</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>2000</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E102">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G102">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I102">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="J102">
-        <v>9722</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,129 +3930,129 @@
         <v>2000</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E103">
         <v>0.7</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G103">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I103">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="J103">
-        <v>9621</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B104">
         <v>2000</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G104">
         <v>0.2</v>
       </c>
       <c r="I104">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="J104">
-        <v>4953</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B105">
         <v>2000</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E105">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G105">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I105">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="J105">
-        <v>4710</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>2000</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E106">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
       </c>
       <c r="G106">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I106">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="J106">
-        <v>8242</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B107">
         <v>2000</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
@@ -4061,27 +4061,27 @@
         <v>0.2</v>
       </c>
       <c r="I107">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="J107">
-        <v>4270</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B108">
         <v>2000</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -4090,10 +4090,10 @@
         <v>0.2</v>
       </c>
       <c r="I108">
-        <v>918</v>
+        <v>876</v>
       </c>
       <c r="J108">
-        <v>4956</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4104,25 +4104,25 @@
         <v>2000</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E109">
         <v>0.7</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G109">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I109">
-        <v>922</v>
+        <v>876</v>
       </c>
       <c r="J109">
-        <v>4407</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4133,25 +4133,25 @@
         <v>2000</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E110">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G110">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I110">
-        <v>922</v>
+        <v>876</v>
       </c>
       <c r="J110">
-        <v>9205</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,54 +4162,54 @@
         <v>2000</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
       </c>
       <c r="G111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I111">
-        <v>924</v>
+        <v>878</v>
       </c>
       <c r="J111">
-        <v>5165</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B112">
         <v>2000</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E112">
         <v>0.7</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G112">
         <v>0.2</v>
       </c>
       <c r="I112">
-        <v>924</v>
+        <v>878</v>
       </c>
       <c r="J112">
-        <v>9615</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4220,54 +4220,54 @@
         <v>2000</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
       </c>
       <c r="G113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I113">
-        <v>926</v>
+        <v>882</v>
       </c>
       <c r="J113">
-        <v>8934</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B114">
         <v>2000</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E114">
         <v>0.7</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G114">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I114">
-        <v>932</v>
+        <v>884</v>
       </c>
       <c r="J114">
-        <v>5319</v>
+        <v>8678</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4278,25 +4278,25 @@
         <v>2000</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G115">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I115">
-        <v>934</v>
+        <v>884</v>
       </c>
       <c r="J115">
-        <v>9135</v>
+        <v>10139</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4307,25 +4307,25 @@
         <v>2000</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E116">
         <v>0.7</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G116">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I116">
-        <v>936</v>
+        <v>886</v>
       </c>
       <c r="J116">
-        <v>9088</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4336,25 +4336,25 @@
         <v>2000</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>0.8</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G117">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I117">
-        <v>938</v>
+        <v>886</v>
       </c>
       <c r="J117">
-        <v>5415</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4365,25 +4365,25 @@
         <v>2000</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118">
         <v>0.8</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G118">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I118">
-        <v>944</v>
+        <v>886</v>
       </c>
       <c r="J118">
-        <v>9201</v>
+        <v>9402</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4394,25 +4394,25 @@
         <v>2000</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E119">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G119">
         <v>0.2</v>
       </c>
       <c r="I119">
-        <v>946</v>
+        <v>888</v>
       </c>
       <c r="J119">
-        <v>5114</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4423,25 +4423,25 @@
         <v>2000</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E120">
         <v>0.8</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G120">
         <v>0.4</v>
       </c>
       <c r="I120">
-        <v>950</v>
+        <v>888</v>
       </c>
       <c r="J120">
-        <v>4484</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4452,25 +4452,25 @@
         <v>2000</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E121">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G121">
         <v>0.2</v>
       </c>
       <c r="I121">
-        <v>952</v>
+        <v>888</v>
       </c>
       <c r="J121">
-        <v>8737</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4481,10 +4481,10 @@
         <v>2000</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E122">
         <v>0.7</v>
@@ -4496,27 +4496,27 @@
         <v>0.4</v>
       </c>
       <c r="I122">
-        <v>956</v>
+        <v>890</v>
       </c>
       <c r="J122">
-        <v>4537</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B123">
         <v>2000</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -4525,10 +4525,10 @@
         <v>0.4</v>
       </c>
       <c r="I123">
-        <v>956</v>
+        <v>890</v>
       </c>
       <c r="J123">
-        <v>5049</v>
+        <v>9266</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4539,10 +4539,10 @@
         <v>2000</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E124">
         <v>0.8</v>
@@ -4554,53 +4554,53 @@
         <v>0.2</v>
       </c>
       <c r="I124">
-        <v>956</v>
+        <v>894</v>
       </c>
       <c r="J124">
-        <v>5111</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B125">
         <v>2000</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E125">
         <v>0.7</v>
       </c>
       <c r="F125" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G125">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I125">
-        <v>958</v>
+        <v>894</v>
       </c>
       <c r="J125">
-        <v>9692</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>2000</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E126">
         <v>0.8</v>
@@ -4609,71 +4609,71 @@
         <v>9</v>
       </c>
       <c r="G126">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I126">
-        <v>958</v>
+        <v>896</v>
       </c>
       <c r="J126">
-        <v>8554</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B127">
         <v>2000</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E127">
         <v>0.8</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G127">
         <v>0.2</v>
       </c>
       <c r="I127">
-        <v>958</v>
+        <v>896</v>
       </c>
       <c r="J127">
-        <v>9390</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B128">
         <v>2000</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E128">
         <v>0.7</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G128">
         <v>0.2</v>
       </c>
       <c r="I128">
-        <v>960</v>
+        <v>896</v>
       </c>
       <c r="J128">
-        <v>5008</v>
+        <v>9342</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4684,7 +4684,7 @@
         <v>2000</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -4693,16 +4693,16 @@
         <v>0.7</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G129">
         <v>0.4</v>
       </c>
       <c r="I129">
-        <v>968</v>
+        <v>896</v>
       </c>
       <c r="J129">
-        <v>10086</v>
+        <v>9390</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4713,54 +4713,54 @@
         <v>2000</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E130">
         <v>0.7</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G130">
         <v>0.2</v>
       </c>
       <c r="I130">
-        <v>968</v>
+        <v>898</v>
       </c>
       <c r="J130">
-        <v>9894</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B131">
         <v>2000</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E131">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G131">
         <v>0.2</v>
       </c>
       <c r="I131">
-        <v>970</v>
+        <v>898</v>
       </c>
       <c r="J131">
-        <v>4811</v>
+        <v>9141</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4771,65 +4771,65 @@
         <v>2000</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>0.7</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G132">
         <v>0.2</v>
       </c>
       <c r="I132">
-        <v>974</v>
+        <v>900</v>
       </c>
       <c r="J132">
-        <v>4460</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B133">
         <v>2000</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E133">
         <v>0.8</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G133">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I133">
-        <v>976</v>
+        <v>900</v>
       </c>
       <c r="J133">
-        <v>6050</v>
+        <v>9938</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B134">
         <v>2000</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -4838,16 +4838,16 @@
         <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G134">
         <v>0.2</v>
       </c>
       <c r="I134">
-        <v>982</v>
+        <v>900</v>
       </c>
       <c r="J134">
-        <v>4425</v>
+        <v>9460</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4858,25 +4858,25 @@
         <v>2000</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G135">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I135">
-        <v>988</v>
+        <v>902</v>
       </c>
       <c r="J135">
-        <v>5266</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4887,170 +4887,170 @@
         <v>2000</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E136">
         <v>0.8</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G136">
         <v>0.2</v>
       </c>
       <c r="I136">
-        <v>990</v>
+        <v>902</v>
       </c>
       <c r="J136">
-        <v>4672</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B137">
         <v>2000</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
       </c>
       <c r="E137">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G137">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I137">
-        <v>992</v>
+        <v>902</v>
       </c>
       <c r="J137">
-        <v>9240</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B138">
         <v>2000</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E138">
         <v>0.7</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G138">
         <v>0.2</v>
       </c>
       <c r="I138">
-        <v>994</v>
+        <v>902</v>
       </c>
       <c r="J138">
-        <v>5221</v>
+        <v>8874</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B139">
         <v>2000</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E139">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G139">
         <v>0.2</v>
       </c>
       <c r="I139">
-        <v>996</v>
+        <v>904</v>
       </c>
       <c r="J139">
-        <v>9314</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B140">
         <v>2000</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E140">
         <v>0.8</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G140">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I140">
-        <v>998</v>
+        <v>904</v>
       </c>
       <c r="J140">
-        <v>11940</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B141">
         <v>2000</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
       </c>
       <c r="E141">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G141">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I141">
-        <v>1006</v>
+        <v>904</v>
       </c>
       <c r="J141">
-        <v>4862</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5061,7 +5061,7 @@
         <v>2000</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
@@ -5070,45 +5070,45 @@
         <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G142">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I142">
-        <v>1006</v>
+        <v>906</v>
       </c>
       <c r="J142">
-        <v>4856</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B143">
         <v>2000</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E143">
         <v>0.7</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G143">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I143">
-        <v>1006</v>
+        <v>906</v>
       </c>
       <c r="J143">
-        <v>10855</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5119,54 +5119,54 @@
         <v>2000</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E144">
         <v>0.8</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G144">
         <v>0.4</v>
       </c>
       <c r="I144">
-        <v>1008</v>
+        <v>908</v>
       </c>
       <c r="J144">
-        <v>10126</v>
+        <v>10316</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B145">
         <v>2000</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E145">
         <v>0.7</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G145">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I145">
-        <v>1012</v>
+        <v>914</v>
       </c>
       <c r="J145">
-        <v>5617</v>
+        <v>10124</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5177,25 +5177,25 @@
         <v>2000</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E146">
         <v>0.8</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G146">
         <v>0.4</v>
       </c>
       <c r="I146">
-        <v>1012</v>
+        <v>916</v>
       </c>
       <c r="J146">
-        <v>4725</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5206,25 +5206,25 @@
         <v>2000</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E147">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G147">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I147">
-        <v>1014</v>
+        <v>916</v>
       </c>
       <c r="J147">
-        <v>5521</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5235,83 +5235,83 @@
         <v>2000</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E148">
         <v>0.7</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G148">
         <v>0.2</v>
       </c>
       <c r="I148">
-        <v>1014</v>
+        <v>916</v>
       </c>
       <c r="J148">
-        <v>5106</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B149">
         <v>2000</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G149">
         <v>0.2</v>
       </c>
       <c r="I149">
-        <v>1018</v>
+        <v>918</v>
       </c>
       <c r="J149">
-        <v>8472</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B150">
         <v>2000</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E150">
         <v>0.7</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G150">
         <v>0.2</v>
       </c>
       <c r="I150">
-        <v>1022</v>
+        <v>922</v>
       </c>
       <c r="J150">
-        <v>8243</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5322,25 +5322,25 @@
         <v>2000</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E151">
         <v>0.8</v>
       </c>
       <c r="F151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G151">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I151">
-        <v>1026</v>
+        <v>922</v>
       </c>
       <c r="J151">
-        <v>9005</v>
+        <v>9205</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5351,83 +5351,83 @@
         <v>2000</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E152">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G152">
         <v>0.4</v>
       </c>
       <c r="I152">
-        <v>1028</v>
+        <v>924</v>
       </c>
       <c r="J152">
-        <v>4720</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B153">
         <v>2000</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E153">
         <v>0.7</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G153">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I153">
-        <v>1030</v>
+        <v>924</v>
       </c>
       <c r="J153">
-        <v>4922</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B154">
         <v>2000</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E154">
         <v>0.7</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G154">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I154">
-        <v>1032</v>
+        <v>924</v>
       </c>
       <c r="J154">
-        <v>13710</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5438,25 +5438,25 @@
         <v>2000</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E155">
         <v>0.7</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G155">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I155">
-        <v>1032</v>
+        <v>926</v>
       </c>
       <c r="J155">
-        <v>9545</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5467,25 +5467,25 @@
         <v>2000</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E156">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G156">
         <v>0.2</v>
       </c>
       <c r="I156">
-        <v>1042</v>
+        <v>928</v>
       </c>
       <c r="J156">
-        <v>9595</v>
+        <v>9893</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5496,25 +5496,25 @@
         <v>2000</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E157">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G157">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I157">
-        <v>1042</v>
+        <v>930</v>
       </c>
       <c r="J157">
-        <v>9229</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5525,83 +5525,83 @@
         <v>2000</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G158">
         <v>0.2</v>
       </c>
       <c r="I158">
-        <v>1044</v>
+        <v>934</v>
       </c>
       <c r="J158">
-        <v>5347</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B159">
         <v>2000</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G159">
         <v>0.2</v>
       </c>
       <c r="I159">
-        <v>1044</v>
+        <v>934</v>
       </c>
       <c r="J159">
-        <v>4606</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B160">
         <v>2000</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E160">
         <v>0.8</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G160">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I160">
-        <v>1044</v>
+        <v>936</v>
       </c>
       <c r="J160">
-        <v>9542</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5612,25 +5612,25 @@
         <v>2000</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G161">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I161">
-        <v>1046</v>
+        <v>936</v>
       </c>
       <c r="J161">
-        <v>8379</v>
+        <v>9742</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5641,25 +5641,25 @@
         <v>2000</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E162">
         <v>0.7</v>
       </c>
       <c r="F162" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G162">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I162">
-        <v>1050</v>
+        <v>942</v>
       </c>
       <c r="J162">
-        <v>5219</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5670,25 +5670,25 @@
         <v>2000</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G163">
         <v>0.2</v>
       </c>
       <c r="I163">
-        <v>1052</v>
+        <v>942</v>
       </c>
       <c r="J163">
-        <v>5024</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5699,54 +5699,54 @@
         <v>2000</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E164">
         <v>0.8</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G164">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I164">
-        <v>1052</v>
+        <v>944</v>
       </c>
       <c r="J164">
-        <v>9016</v>
+        <v>9201</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B165">
         <v>2000</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E165">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G165">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I165">
-        <v>1056</v>
+        <v>944</v>
       </c>
       <c r="J165">
-        <v>8636</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5757,25 +5757,25 @@
         <v>2000</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G166">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I166">
-        <v>1060</v>
+        <v>944</v>
       </c>
       <c r="J166">
-        <v>4549</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5786,25 +5786,25 @@
         <v>2000</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E167">
         <v>0.8</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G167">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I167">
-        <v>1060</v>
+        <v>950</v>
       </c>
       <c r="J167">
-        <v>4509</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5815,112 +5815,112 @@
         <v>2000</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E168">
         <v>0.7</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G168">
         <v>0.2</v>
       </c>
       <c r="I168">
-        <v>1062</v>
+        <v>950</v>
       </c>
       <c r="J168">
-        <v>8102</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B169">
         <v>2000</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E169">
         <v>0.7</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G169">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I169">
-        <v>1062</v>
+        <v>952</v>
       </c>
       <c r="J169">
-        <v>8867</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B170">
         <v>2000</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E170">
         <v>0.7</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G170">
         <v>0.4</v>
       </c>
       <c r="I170">
-        <v>1066</v>
+        <v>956</v>
       </c>
       <c r="J170">
-        <v>10520</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B171">
         <v>2000</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E171">
         <v>0.7</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G171">
         <v>0.4</v>
       </c>
       <c r="I171">
-        <v>1070</v>
+        <v>956</v>
       </c>
       <c r="J171">
-        <v>8892</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5931,25 +5931,25 @@
         <v>2000</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G172">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I172">
-        <v>1072</v>
+        <v>956</v>
       </c>
       <c r="J172">
-        <v>4758</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5960,83 +5960,83 @@
         <v>2000</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E173">
         <v>0.7</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G173">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I173">
-        <v>1074</v>
+        <v>956</v>
       </c>
       <c r="J173">
-        <v>4491</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B174">
         <v>2000</v>
       </c>
       <c r="C174" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F174" t="s">
         <v>9</v>
       </c>
       <c r="G174">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I174">
-        <v>1074</v>
+        <v>958</v>
       </c>
       <c r="J174">
-        <v>5064</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B175">
         <v>2000</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E175">
         <v>0.8</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G175">
         <v>0.2</v>
       </c>
       <c r="I175">
-        <v>1078</v>
+        <v>958</v>
       </c>
       <c r="J175">
-        <v>4705</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6047,25 +6047,25 @@
         <v>2000</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E176">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G176">
         <v>0.2</v>
       </c>
       <c r="I176">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="J176">
-        <v>4253</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6076,25 +6076,25 @@
         <v>2000</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G177">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I177">
-        <v>1082</v>
+        <v>974</v>
       </c>
       <c r="J177">
-        <v>5374</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6105,112 +6105,112 @@
         <v>2000</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G178">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I178">
-        <v>1086</v>
+        <v>976</v>
       </c>
       <c r="J178">
-        <v>4602</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B179">
         <v>2000</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E179">
         <v>0.8</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G179">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I179">
-        <v>1092</v>
+        <v>982</v>
       </c>
       <c r="J179">
-        <v>14807</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B180">
         <v>2000</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E180">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G180">
         <v>0.4</v>
       </c>
       <c r="I180">
-        <v>1096</v>
+        <v>1026</v>
       </c>
       <c r="J180">
-        <v>5429</v>
+        <v>9005</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B181">
         <v>2000</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G181">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I181">
-        <v>1098</v>
+        <v>1032</v>
       </c>
       <c r="J181">
-        <v>4706</v>
+        <v>13710</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6221,39 +6221,39 @@
         <v>2000</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E182">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G182">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I182">
-        <v>1104</v>
+        <v>1050</v>
       </c>
       <c r="J182">
-        <v>4599</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B183">
         <v>2000</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E183">
         <v>0.8</v>
@@ -6265,10 +6265,10 @@
         <v>0.4</v>
       </c>
       <c r="I183">
-        <v>1106</v>
+        <v>1074</v>
       </c>
       <c r="J183">
-        <v>13391</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6282,22 +6282,22 @@
         <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E184">
         <v>0.8</v>
       </c>
       <c r="F184" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G184">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I184">
-        <v>1122</v>
+        <v>1094</v>
       </c>
       <c r="J184">
-        <v>5745</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6308,25 +6308,25 @@
         <v>2000</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E185">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G185">
         <v>0.4</v>
       </c>
       <c r="I185">
-        <v>1136</v>
+        <v>1098</v>
       </c>
       <c r="J185">
-        <v>5974</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6343,19 +6343,19 @@
         <v>8</v>
       </c>
       <c r="E186">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G186">
         <v>0.4</v>
       </c>
       <c r="I186">
-        <v>1136</v>
+        <v>1106</v>
       </c>
       <c r="J186">
-        <v>12980</v>
+        <v>13391</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6369,22 +6369,22 @@
         <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E187">
         <v>0.7</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G187">
         <v>0.4</v>
       </c>
       <c r="I187">
-        <v>1144</v>
+        <v>1108</v>
       </c>
       <c r="J187">
-        <v>11984</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6398,56 +6398,56 @@
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E188">
         <v>0.7</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G188">
         <v>0.4</v>
       </c>
       <c r="I188">
-        <v>1144</v>
+        <v>1112</v>
       </c>
       <c r="J188">
-        <v>11856</v>
+        <v>11755</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B189">
         <v>2000</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
         <v>13</v>
       </c>
       <c r="E189">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F189" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G189">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I189">
-        <v>1148</v>
+        <v>1114</v>
       </c>
       <c r="J189">
-        <v>11955</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B190">
         <v>2000</v>
@@ -6456,27 +6456,27 @@
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G190">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I190">
-        <v>1150</v>
+        <v>1118</v>
       </c>
       <c r="J190">
-        <v>5749</v>
+        <v>10325</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B191">
         <v>2000</v>
@@ -6485,22 +6485,22 @@
         <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E191">
         <v>0.8</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G191">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I191">
-        <v>1150</v>
+        <v>1122</v>
       </c>
       <c r="J191">
-        <v>11104</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6517,19 +6517,19 @@
         <v>8</v>
       </c>
       <c r="E192">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G192">
         <v>0.4</v>
       </c>
       <c r="I192">
-        <v>1152</v>
+        <v>1128</v>
       </c>
       <c r="J192">
-        <v>14016</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6543,22 +6543,22 @@
         <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F193" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G193">
         <v>0.4</v>
       </c>
       <c r="I193">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="J193">
-        <v>5660</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6569,13 +6569,13 @@
         <v>2000</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F194" t="s">
         <v>9</v>
@@ -6584,15 +6584,15 @@
         <v>0.4</v>
       </c>
       <c r="I194">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="J194">
-        <v>9237</v>
+        <v>11984</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B195">
         <v>2000</v>
@@ -6601,27 +6601,27 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G195">
         <v>0.4</v>
       </c>
       <c r="I195">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="J195">
-        <v>5333</v>
+        <v>11856</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B196">
         <v>2000</v>
@@ -6630,22 +6630,22 @@
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E196">
         <v>0.7</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G196">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I196">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="J196">
-        <v>5921</v>
+        <v>11955</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6659,7 +6659,7 @@
         <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E197">
         <v>0.7</v>
@@ -6668,13 +6668,13 @@
         <v>10</v>
       </c>
       <c r="G197">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I197">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="J197">
-        <v>5813</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6691,19 +6691,19 @@
         <v>13</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F198" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G198">
         <v>0.2</v>
       </c>
       <c r="I198">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="J198">
-        <v>12044</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -6717,22 +6717,22 @@
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G199">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I199">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="J199">
-        <v>9788</v>
+        <v>9715</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6746,33 +6746,33 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G200">
         <v>0.4</v>
       </c>
       <c r="I200">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="J200">
-        <v>6049</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>2000</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -6781,21 +6781,21 @@
         <v>0.8</v>
       </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G201">
         <v>0.4</v>
       </c>
       <c r="I201">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="J201">
-        <v>5780</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B202">
         <v>2000</v>
@@ -6804,22 +6804,22 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E202">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G202">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I202">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="J202">
-        <v>5358</v>
+        <v>9696</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6833,22 +6833,22 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F203" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G203">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I203">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="J203">
-        <v>14243</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6862,22 +6862,22 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G204">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I204">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="J204">
-        <v>10096</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6891,22 +6891,22 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E205">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G205">
         <v>0.4</v>
       </c>
       <c r="I205">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="J205">
-        <v>13474</v>
+        <v>9864</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6917,30 +6917,30 @@
         <v>2000</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G206">
         <v>0.4</v>
       </c>
       <c r="I206">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="J206">
-        <v>4861</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B207">
         <v>2000</v>
@@ -6949,22 +6949,22 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E207">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G207">
         <v>0.2</v>
       </c>
       <c r="I207">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="J207">
-        <v>10047</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6978,22 +6978,22 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E208">
         <v>0.8</v>
       </c>
       <c r="F208" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G208">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I208">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="J208">
-        <v>15333</v>
+        <v>9905</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -7007,7 +7007,7 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E209">
         <v>0.8</v>
@@ -7016,13 +7016,13 @@
         <v>9</v>
       </c>
       <c r="G209">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I209">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="J209">
-        <v>11011</v>
+        <v>12044</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -7036,22 +7036,22 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E210">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G210">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I210">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="J210">
-        <v>5783</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7065,27 +7065,27 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E211">
         <v>0.8</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G211">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I211">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="J211">
-        <v>12449</v>
+        <v>14243</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B212">
         <v>2000</v>
@@ -7094,22 +7094,22 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E212">
         <v>0.7</v>
       </c>
       <c r="F212" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G212">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I212">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="J212">
-        <v>12052</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7123,27 +7123,27 @@
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G213">
         <v>0.2</v>
       </c>
       <c r="I213">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="J213">
-        <v>5256</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B214">
         <v>2000</v>
@@ -7152,22 +7152,22 @@
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E214">
         <v>0.7</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G214">
         <v>0.2</v>
       </c>
       <c r="I214">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="J214">
-        <v>10009</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -7181,22 +7181,22 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E215">
         <v>0.8</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G215">
         <v>0.4</v>
       </c>
       <c r="I215">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="J215">
-        <v>10107</v>
+        <v>15333</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7210,56 +7210,56 @@
         <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E216">
         <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G216">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I216">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="J216">
-        <v>10988</v>
+        <v>11011</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B217">
         <v>2000</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E217">
         <v>0.8</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G217">
         <v>0.4</v>
       </c>
       <c r="I217">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="J217">
-        <v>6120</v>
+        <v>10189</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B218">
         <v>2000</v>
@@ -7268,27 +7268,27 @@
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E218">
         <v>0.7</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G218">
         <v>0.2</v>
       </c>
       <c r="I218">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="J218">
-        <v>5778</v>
+        <v>12052</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B219">
         <v>2000</v>
@@ -7297,22 +7297,22 @@
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G219">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I219">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="J219">
-        <v>5920</v>
+        <v>9842</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7332,21 +7332,21 @@
         <v>0.7</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G220">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I220">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="J220">
-        <v>10174</v>
+        <v>9866</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B221">
         <v>2000</v>
@@ -7355,27 +7355,27 @@
         <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G221">
         <v>0.4</v>
       </c>
       <c r="I221">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="J221">
-        <v>9624</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>2000</v>
@@ -7390,16 +7390,16 @@
         <v>0.8</v>
       </c>
       <c r="F222" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G222">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I222">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="J222">
-        <v>5735</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7410,30 +7410,30 @@
         <v>2000</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D223" t="s">
         <v>13</v>
       </c>
       <c r="E223">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F223" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G223">
         <v>0.4</v>
       </c>
       <c r="I223">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J223">
-        <v>9884</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B224">
         <v>2000</v>
@@ -7442,27 +7442,27 @@
         <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
       </c>
       <c r="G224">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I224">
         <v>1176</v>
       </c>
       <c r="J224">
-        <v>12333</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B225">
         <v>2000</v>
@@ -7477,21 +7477,21 @@
         <v>0.7</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G225">
         <v>0.4</v>
       </c>
       <c r="I225">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J225">
-        <v>5716</v>
+        <v>12333</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B226">
         <v>2000</v>
@@ -7500,22 +7500,22 @@
         <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E226">
         <v>0.8</v>
       </c>
       <c r="F226" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G226">
         <v>0.4</v>
       </c>
       <c r="I226">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J226">
-        <v>5262</v>
+        <v>9888</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7529,22 +7529,22 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E227">
         <v>0.7</v>
       </c>
       <c r="F227" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G227">
         <v>0.4</v>
       </c>
       <c r="I227">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J227">
-        <v>13700</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -7558,7 +7558,7 @@
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E228">
         <v>0.7</v>
@@ -7567,13 +7567,13 @@
         <v>9</v>
       </c>
       <c r="G228">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I228">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="J228">
-        <v>12664</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7587,10 +7587,10 @@
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E229">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F229" t="s">
         <v>9</v>
@@ -7602,7 +7602,7 @@
         <v>1180</v>
       </c>
       <c r="J229">
-        <v>10806</v>
+        <v>12664</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7613,25 +7613,25 @@
         <v>2000</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E230">
         <v>0.8</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G230">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I230">
         <v>1180</v>
       </c>
       <c r="J230">
-        <v>9336</v>
+        <v>10806</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7648,19 +7648,19 @@
         <v>13</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F231" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G231">
         <v>0.4</v>
       </c>
       <c r="I231">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="J231">
-        <v>5764</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7674,13 +7674,13 @@
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G232">
         <v>0.4</v>
@@ -7689,7 +7689,7 @@
         <v>1182</v>
       </c>
       <c r="J232">
-        <v>5185</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7703,13 +7703,13 @@
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E233">
         <v>0.7</v>
       </c>
       <c r="F233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G233">
         <v>0.4</v>
@@ -7718,7 +7718,7 @@
         <v>1182</v>
       </c>
       <c r="J233">
-        <v>5176</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7732,7 +7732,7 @@
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E234">
         <v>0.8</v>
@@ -7761,7 +7761,7 @@
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E235">
         <v>0.7</v>
@@ -7790,7 +7790,7 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E236">
         <v>0.8</v>
@@ -7819,27 +7819,27 @@
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E237">
         <v>0.8</v>
       </c>
       <c r="F237" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G237">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I237">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="J237">
-        <v>5125</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B238">
         <v>2000</v>
@@ -7848,27 +7848,27 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E238">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F238" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G238">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I238">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="J238">
-        <v>5654</v>
+        <v>9876</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B239">
         <v>2000</v>
@@ -7877,27 +7877,27 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E239">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F239" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G239">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I239">
         <v>1184</v>
       </c>
       <c r="J239">
-        <v>9657</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B240">
         <v>2000</v>
@@ -7906,22 +7906,22 @@
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E240">
         <v>0.8</v>
       </c>
       <c r="F240" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G240">
         <v>0.2</v>
       </c>
       <c r="I240">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="J240">
-        <v>5379</v>
+        <v>10289</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E241">
         <v>0.8</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G241">
         <v>0.2</v>
@@ -7950,7 +7950,7 @@
         <v>1186</v>
       </c>
       <c r="J241">
-        <v>5225</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -7964,27 +7964,27 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E242">
         <v>0.8</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G242">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I242">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="J242">
-        <v>5577</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B243">
         <v>2000</v>
@@ -7993,22 +7993,22 @@
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E243">
         <v>0.8</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G243">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I243">
         <v>1188</v>
       </c>
       <c r="J243">
-        <v>15142</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -8028,21 +8028,21 @@
         <v>0.8</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G244">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I244">
         <v>1190</v>
       </c>
       <c r="J244">
-        <v>5435</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B245">
         <v>2000</v>
@@ -8051,13 +8051,13 @@
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E245">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G245">
         <v>0.2</v>
@@ -8066,7 +8066,7 @@
         <v>1190</v>
       </c>
       <c r="J245">
-        <v>5213</v>
+        <v>10945</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -8080,27 +8080,27 @@
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E246">
         <v>0.8</v>
       </c>
       <c r="F246" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G246">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I246">
         <v>1190</v>
       </c>
       <c r="J246">
-        <v>5126</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B247">
         <v>2000</v>
@@ -8115,21 +8115,21 @@
         <v>0.8</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G247">
         <v>0.4</v>
       </c>
       <c r="I247">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="J247">
-        <v>14484</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B248">
         <v>2000</v>
@@ -8138,22 +8138,22 @@
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E248">
         <v>0.8</v>
       </c>
       <c r="F248" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G248">
         <v>0.2</v>
       </c>
       <c r="I248">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="J248">
-        <v>10945</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -8167,27 +8167,27 @@
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E249">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G249">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I249">
         <v>1192</v>
       </c>
       <c r="J249">
-        <v>5061</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B250">
         <v>2000</v>
@@ -8196,56 +8196,56 @@
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E250">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F250" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G250">
         <v>0.2</v>
       </c>
       <c r="I250">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="J250">
-        <v>5227</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B251">
         <v>2000</v>
       </c>
       <c r="C251" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F251" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G251">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I251">
         <v>1194</v>
       </c>
       <c r="J251">
-        <v>9246</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B252">
         <v>2000</v>
@@ -8254,22 +8254,22 @@
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E252">
         <v>0.8</v>
       </c>
       <c r="F252" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G252">
         <v>0.4</v>
       </c>
       <c r="I252">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="J252">
-        <v>5144</v>
+        <v>9957</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -8283,27 +8283,27 @@
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E253">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F253" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G253">
         <v>0.4</v>
       </c>
       <c r="I253">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="J253">
-        <v>5161</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B254">
         <v>2000</v>
@@ -8312,22 +8312,22 @@
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E254">
         <v>0.7</v>
       </c>
       <c r="F254" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G254">
         <v>0.2</v>
       </c>
       <c r="I254">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="J254">
-        <v>12863</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -8341,22 +8341,22 @@
         <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E255">
         <v>0.7</v>
       </c>
       <c r="F255" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G255">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I255">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="J255">
-        <v>5111</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -8370,27 +8370,27 @@
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E256">
         <v>0.7</v>
       </c>
       <c r="F256" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G256">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I256">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="J256">
-        <v>5111</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B257">
         <v>2000</v>
@@ -8399,27 +8399,27 @@
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E257">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G257">
         <v>0.2</v>
       </c>
       <c r="I257">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="J257">
-        <v>9550</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B258">
         <v>2000</v>
@@ -8428,22 +8428,22 @@
         <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E258">
         <v>0.7</v>
       </c>
       <c r="F258" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G258">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I258">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="J258">
-        <v>14025</v>
+        <v>5111</v>
       </c>
     </row>
   </sheetData>
